--- a/DataAcqSystemBOM.xlsx
+++ b/DataAcqSystemBOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbrow\OneDrive\Documents\Arduino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbrow\OneDrive\Documents\Arduino1.8.5\Maple-Mini-Kart-Daq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_287EC64DC1EAAB1EB0342C597539F6111F143FC5" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{57F3D577-B238-4826-8C74-5988B89F2A4D}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_287EC64DC1EAAB1EB0342C597539F6111F143FC5" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0868209C-196B-4892-970E-53F8B017946C}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Quantity</t>
   </si>
@@ -52,6 +52,45 @@
   </si>
   <si>
     <t>Maple Mini</t>
+  </si>
+  <si>
+    <t>MapleMiniCase_Main</t>
+  </si>
+  <si>
+    <t>MapleMiniCase_TopCover</t>
+  </si>
+  <si>
+    <t>MMandBatteryCover</t>
+  </si>
+  <si>
+    <t>SDCardCover</t>
+  </si>
+  <si>
+    <t>https://github.com/JetNoiseRacing/Maple-Mini-Kart-Daq/tree/master/CaseCAD</t>
+  </si>
+  <si>
+    <t>Damper Bulbs</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/vibration-damping-balls-200g-yellow-8-pcs.html</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/leaflabs-Leaf-maple-mini-ARM-STM32-compatibility/1987703487.html</t>
+  </si>
+  <si>
+    <t>9V Battery</t>
+  </si>
+  <si>
+    <t>0.1uF Capacitors</t>
+  </si>
+  <si>
+    <t>Various resistors</t>
+  </si>
+  <si>
+    <t>MCP1702-5002E/TO-ND (Low Dropout Regulator)</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Microchip-Technology/MCP1702-5002E-TO?qs=jZi1jxfVU96jFzuz5k6DAw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -431,16 +470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +500,9 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -494,7 +535,109 @@
       </c>
       <c r="C5" s="1"/>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{EA7D917D-03BC-4B93-8A97-556D31CA944C}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{D2E2FCB2-E6F5-410C-908C-DE3230E00AA5}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{D05940AF-637D-4057-B6AF-04099878437D}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{C8209768-0D9B-4F00-9F5D-AEF018882A91}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{3349758C-B113-4400-87A1-20639A526F44}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{6FDE7BD9-349E-41AE-BBE1-9AC684CC0BC2}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{8345C8D9-5ED6-40E4-A56B-CCA65B3CF19C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataAcqSystemBOM.xlsx
+++ b/DataAcqSystemBOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbrow\OneDrive\Documents\Arduino1.8.5\Maple-Mini-Kart-Daq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_287EC64DC1EAAB1EB0342C597539F6111F143FC5" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0868209C-196B-4892-970E-53F8B017946C}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_287EC64DC1EAAB1EB0342C597539F6111F143FC5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9A6DD53B-C2DC-42C6-A77A-D11118BAD357}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Quantity</t>
   </si>
@@ -91,6 +91,13 @@
   </si>
   <si>
     <t>https://www.mouser.ca/ProductDetail/Microchip-Technology/MCP1702-5002E-TO?qs=jZi1jxfVU96jFzuz5k6DAw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B06VSYJ7HN/ref=ppx_yo_dt_b_asin_title_o08_s01?ie=UTF8&amp;psc=1
+https://www.amazon.com/gp/product/B00O9O868G/ref=ppx_yo_dt_b_asin_title_o08_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>nRF24L01 Transceivers (with or w/o antenna)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -155,6 +162,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,23 +626,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
